--- a/dataFiles/test/bateau/bateau_1_MIL.xlsx
+++ b/dataFiles/test/bateau/bateau_1_MIL.xlsx
@@ -127,22 +127,22 @@
     <t>(1310, 476, 46, 101)</t>
   </si>
   <si>
-    <t>(57, 48, 168)</t>
-  </si>
-  <si>
-    <t>(250, 45, 196)</t>
-  </si>
-  <si>
-    <t>(231, 228, 176)</t>
-  </si>
-  <si>
-    <t>(14, 193, 238)</t>
-  </si>
-  <si>
-    <t>(176, 236, 160)</t>
-  </si>
-  <si>
-    <t>(51, 147, 8)</t>
+    <t>(101, 115, 100)</t>
+  </si>
+  <si>
+    <t>(140, 163, 238)</t>
+  </si>
+  <si>
+    <t>(7, 121, 85)</t>
+  </si>
+  <si>
+    <t>(175, 119, 249)</t>
+  </si>
+  <si>
+    <t>(81, 84, 56)</t>
+  </si>
+  <si>
+    <t>(125, 221, 237)</t>
   </si>
 </sst>
 </file>
@@ -591,7 +591,7 @@
         <v>37</v>
       </c>
       <c r="M2">
-        <v>19.24</v>
+        <v>19.28</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -635,7 +635,7 @@
         <v>38</v>
       </c>
       <c r="M3">
-        <v>19.83</v>
+        <v>19.61</v>
       </c>
       <c r="P3" t="b">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>39</v>
       </c>
       <c r="M4">
-        <v>19.78</v>
+        <v>19.76</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>40</v>
       </c>
       <c r="M5">
-        <v>19.59</v>
+        <v>19.55</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>41</v>
       </c>
       <c r="M6">
-        <v>19.53</v>
+        <v>19.47</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>42</v>
       </c>
       <c r="M7">
-        <v>19.85</v>
+        <v>19.68</v>
       </c>
       <c r="P7" t="b">
         <v>0</v>
